--- a/src/main/resources/files/프로젝트구조.xlsx
+++ b/src/main/resources/files/프로젝트구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanaBank\workspace\kakao-online\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1BC4DA-C594-43B5-A3A2-BDCBC361132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D373A6-737E-4E7B-9033-21B39D2541C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{1C7EC08A-CB10-409E-ACF1-25950BAD22D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C7EC08A-CB10-409E-ACF1-25950BAD22D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,13 +161,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1115304</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1731817</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152510</xdr:rowOff>
     </xdr:to>
@@ -192,8 +192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="20659725"/>
-          <a:ext cx="6296904" cy="781159"/>
+          <a:off x="1385454" y="623455"/>
+          <a:ext cx="8174181" cy="775964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -210,8 +210,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>972409</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1731818</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>200257</xdr:rowOff>
     </xdr:to>
@@ -236,52 +236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="21707475"/>
-          <a:ext cx="6154009" cy="1667108"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1874783</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>174841</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4302D99D-7903-E958-5E0F-510A2188208D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1367118" y="24417618"/>
-          <a:ext cx="8306959" cy="4220164"/>
+          <a:off x="1385455" y="1662545"/>
+          <a:ext cx="8174181" cy="1654985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -317,7 +273,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -361,7 +317,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect l="176" b="19671"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -404,7 +360,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -413,6 +369,138 @@
         <a:xfrm>
           <a:off x="12135971" y="41876382"/>
           <a:ext cx="5239481" cy="3982006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>674391</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>102891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1531890</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>26597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29F6BDA-2BB7-811F-A97C-109D5AFCD2CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367118" y="24417618"/>
+          <a:ext cx="7992590" cy="5534797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1679863</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>131524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3243DC42-079A-4468-B4BD-21459A38B747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1385454" y="3948545"/>
+          <a:ext cx="8122227" cy="5534797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1874783</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>174842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE77CE68-4774-4F6C-AA6A-FBC6EBD40308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1385455" y="10183091"/>
+          <a:ext cx="8317146" cy="4123387"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -723,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB17298-5040-480E-8A98-A8FC1B250CA6}">
   <dimension ref="C3:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
